--- a/biology/Botanique/Emmenopterys/Emmenopterys.xlsx
+++ b/biology/Botanique/Emmenopterys/Emmenopterys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmenopterys est un genre d'arbres appartenant à la famille des Rubiaceae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmenopterys est un genre d'arbres appartenant à la famille des Rubiaceae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (9 avril 2020)[3] et World Checklist of Selected Plant Families (WCSP)  (9 avril 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (9 avril 2020) et World Checklist of Selected Plant Families (WCSP)  (9 avril 2020) :
 Emmenopterys henryi Oliv. (1889)
-Selon Catalogue of Life                                   (9 avril 2020)[5] et Tropicos                                           (9 avril 2020)[1] :
+Selon Catalogue of Life                                   (9 avril 2020) et Tropicos                                           (9 avril 2020) :
 Emmenopterys henryi Oliv.
 Emmenopterys rehderi F.P.Metcalf</t>
         </is>
